--- a/data/trans_dic/P22$mutuaSPriv-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P22$mutuaSPriv-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,94; 4,72</t>
+          <t>0,95; 4,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,43; 7,47</t>
+          <t>2,47; 7,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,36; 4,04</t>
+          <t>0,33; 4,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,37; 4,98</t>
+          <t>1,28; 4,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,2</t>
+          <t>0,37; 3,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 4,3</t>
+          <t>0,72; 4,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,32; 3,4</t>
+          <t>0,35; 3,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,73; 6,75</t>
+          <t>1,75; 6,33</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,9; 3,36</t>
+          <t>0,84; 3,08</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,94; 5,16</t>
+          <t>1,95; 5,24</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,67; 2,86</t>
+          <t>0,64; 2,85</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,92; 4,45</t>
+          <t>2,0; 4,69</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,12 +865,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,15; 5,69</t>
+          <t>2,18; 5,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,94; 5,75</t>
+          <t>1,97; 5,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,54 +880,54 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,77; 3,31</t>
+          <t>0,78; 3,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,77; 4,91</t>
+          <t>1,81; 5,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,33; 6,29</t>
+          <t>2,37; 6,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,5</t>
+          <t>0,4; 2,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,59; 4,38</t>
+          <t>1,67; 4,54</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,33; 4,66</t>
+          <t>2,39; 4,96</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,57; 5,43</t>
+          <t>2,55; 5,3</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,39; 1,59</t>
+          <t>0,48; 1,6</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,38; 3,2</t>
+          <t>1,48; 3,25</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,27 +1005,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,91</t>
+          <t>0,0; 1,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,91</t>
+          <t>0,0; 1,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,69; 5,69</t>
+          <t>1,71; 5,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,8; 3,87</t>
+          <t>0,88; 4,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,47</t>
+          <t>0,27; 2,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1034,32 +1035,32 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,19</t>
+          <t>0,27; 2,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,41; 2,24</t>
+          <t>0,37; 2,14</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,27; 1,56</t>
+          <t>0,27; 1,62</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,03</t>
+          <t>0,0; 1,02</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,1; 3,24</t>
+          <t>1,09; 3,26</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,76; 2,47</t>
+          <t>0,79; 2,53</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,77; 4,25</t>
+          <t>0,77; 4,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,32; 6,85</t>
+          <t>2,29; 7,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,82; 4,47</t>
+          <t>0,83; 4,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,65; 12,1</t>
+          <t>4,27; 11,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,95; 4,04</t>
+          <t>0,8; 3,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,07; 4,3</t>
+          <t>1,24; 4,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,97; 4,72</t>
+          <t>1,02; 4,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,5; 4,6</t>
+          <t>1,55; 4,81</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,14; 3,27</t>
+          <t>1,15; 3,3</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,14; 4,99</t>
+          <t>2,16; 4,84</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,24; 3,59</t>
+          <t>1,19; 3,78</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,97; 6,51</t>
+          <t>3,11; 6,94</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1285,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,25; 12,88</t>
+          <t>5,18; 13,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1294,59 +1295,59 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,62; 7,71</t>
+          <t>1,71; 8,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,67; 3,9</t>
+          <t>0,82; 3,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,55; 13,11</t>
+          <t>5,24; 12,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,31</t>
+          <t>0,0; 3,16</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,04</t>
+          <t>0,0; 2,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,78; 3,05</t>
+          <t>0,76; 3,15</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,16; 11,58</t>
+          <t>6,13; 11,54</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,46</t>
+          <t>0,0; 1,74</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,17; 4,47</t>
+          <t>1,14; 4,38</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,96; 2,84</t>
+          <t>1,0; 2,82</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,12 +1425,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,7</t>
+          <t>0,0; 2,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,34</t>
+          <t>0,35; 3,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1439,12 +1440,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,66; 3,19</t>
+          <t>0,79; 3,33</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,57</t>
+          <t>0,0; 2,59</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1459,17 +1460,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,26; 4,55</t>
+          <t>1,27; 4,47</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,01</t>
+          <t>0,34; 2,03</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,93</t>
+          <t>0,17; 1,59</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1479,14 +1480,14 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,24; 3,34</t>
+          <t>1,25; 3,1</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,62</t>
+          <t>0,32; 2,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,7; 2,34</t>
+          <t>0,72; 2,64</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,87; 4,93</t>
+          <t>1,89; 5,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,51; 6,62</t>
+          <t>2,34; 6,7</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,77</t>
+          <t>0,29; 1,76</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,7; 2,89</t>
+          <t>0,7; 2,92</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,4; 3,78</t>
+          <t>1,31; 3,76</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,44; 4,99</t>
+          <t>1,37; 5,12</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,45; 1,72</t>
+          <t>0,45; 1,7</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,91; 2,24</t>
+          <t>0,91; 2,3</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>1,92; 3,81</t>
+          <t>1,9; 3,75</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>2,09; 4,95</t>
+          <t>2,08; 4,96</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,93; 2,72</t>
+          <t>0,86; 2,74</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,43</t>
+          <t>0,97; 3,44</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,16; 3,21</t>
+          <t>1,09; 3,12</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,51; 2,65</t>
+          <t>0,57; 2,68</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,09; 3,21</t>
+          <t>1,06; 3,28</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,23; 3,66</t>
+          <t>1,25; 3,56</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,52; 3,9</t>
+          <t>1,6; 3,98</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,87; 2,34</t>
+          <t>0,88; 2,31</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1,18; 2,67</t>
+          <t>1,1; 2,62</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>1,37; 2,99</t>
+          <t>1,37; 3,05</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>1,5; 3,13</t>
+          <t>1,53; 3,0</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,82; 2,2</t>
+          <t>0,82; 2,16</t>
         </is>
       </c>
     </row>
@@ -1844,17 +1845,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,68; 2,71</t>
+          <t>1,66; 2,7</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,71; 2,83</t>
+          <t>1,7; 2,8</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,58; 2,61</t>
+          <t>1,63; 2,71</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1864,42 +1865,42 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,69; 2,67</t>
+          <t>1,63; 2,61</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,44; 2,46</t>
+          <t>1,45; 2,46</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,28; 2,16</t>
+          <t>1,3; 2,2</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,92; 2,95</t>
+          <t>1,86; 2,97</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,78; 2,5</t>
+          <t>1,77; 2,49</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>1,72; 2,43</t>
+          <t>1,69; 2,47</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>1,52; 2,22</t>
+          <t>1,54; 2,25</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>2,1; 3,02</t>
+          <t>2,14; 2,98</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menor, es beneficiaria de Mutualidad de Estado (Privado)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>6122</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>12976</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>4706</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>8741</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>3256</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>6045</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>3750</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>9315</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>9378</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>19021</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>8455</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>18056</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2592; 12235</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>7276; 23064</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>977; 12380</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>3983; 14928</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>960; 8637</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2074; 12403</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1017; 9408</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>5067; 18343</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>4489; 16388</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>11324; 30522</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>3693; 16599</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>12022; 28205</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>17640</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>17033</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3106</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>8884</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>15850</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>20870</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>6013</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>13960</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>33490</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>37903</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>9118</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>22844</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>10741; 28695</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>9932; 27996</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1010; 8282</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>4019; 16597</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>9130; 25304</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>12413; 33481</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2068; 12952</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>8577; 23398</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>23834; 49468</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>26184; 54546</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>4906; 16364</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>15259; 33584</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1069</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>1957</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>10375</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>6182</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3621</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2720</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>3635</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>4689</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>1957</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>13095</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>9816</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5332</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5947</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5412; 18002</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2797; 12697</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>919; 9086</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2058</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>892; 8127</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1292; 7459</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1740; 10606</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6803</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>7127; 21267</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>5244; 16797</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>7059</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>15943</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>7806</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>22537</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>7579</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>9052</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>9104</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>13949</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>14638</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>24995</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>16910</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>36486</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2756; 15481</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>8546; 26673</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>3082; 15377</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>13347; 36776</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2956; 13377</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>4824; 17070</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>3952; 17778</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>7351; 22901</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>8397; 23960</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>16449; 36889</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>9016; 28587</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>24481; 54726</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>17294</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>8405</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>3180</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>17776</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1843</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>3587</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>35070</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>10248</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>6767</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>10522; 27289</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2071</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>3603; 16978</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1466; 6584</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>10880; 26928</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6937</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5712</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1592; 6583</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>25210; 47444</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0; 7517</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>4918; 18821</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>3863; 10932</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2968</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>3914</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>4358</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>2047</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>6328</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>5015</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>3914</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>10686</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 7474</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>968; 10630</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1942</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2139; 8974</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 7205</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1991</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1985</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>3254; 11496</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1880; 11169</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>957; 8786</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1969</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>6569; 16321</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>6367</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>9343</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>20787</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>24784</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>4735</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>10609</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>15661</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>27080</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>11102</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>19952</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>36448</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>51864</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1970; 15927</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>4777; 17508</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>12363; 33033</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>14613; 41810</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1841; 11225</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>4884; 20256</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>8983; 25823</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>11645; 43445</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>5611; 21293</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>12282; 31163</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>25407; 50218</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>30640; 73063</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>11865</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>14985</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>15057</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>14271</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>15095</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>18358</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>20503</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>10430</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>26960</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>33343</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>35560</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>24701</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>6345; 20302</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>7586; 26820</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>8474; 24263</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>5262; 24851</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>8304; 25676</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>10261; 29297</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>13206; 32915</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>6265; 16550</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>16829; 39906</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>21908; 48818</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>24567; 48176</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>13538; 35464</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>70385</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>76151</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>70242</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>92937</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>69958</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>66933</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>59593</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>88283</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>140343</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>143084</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>129835</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>181220</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>54170; 88277</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>58359; 95847</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>55232; 91957</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>71187; 117591</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>54954; 88275</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>51711; 87500</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>46180; 77953</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>68222; 108676</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>117526; 165710</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>117704; 172459</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>106568; 155579</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>152145; 211974</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>